--- a/data/pca/factorExposure/factorExposure_2014-12-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01519813256032773</v>
+        <v>0.011595181208292</v>
       </c>
       <c r="C2">
-        <v>0.03308311245955723</v>
+        <v>-0.05351708405068707</v>
       </c>
       <c r="D2">
-        <v>0.132173032960396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06444591197855511</v>
+      </c>
+      <c r="E2">
+        <v>0.1006076163457372</v>
+      </c>
+      <c r="F2">
+        <v>-0.1487122784129697</v>
+      </c>
+      <c r="G2">
+        <v>0.05322926617629999</v>
+      </c>
+      <c r="H2">
+        <v>-0.05244148800391862</v>
+      </c>
+      <c r="I2">
+        <v>-0.03773659591966533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04310060277847188</v>
+        <v>0.02119982213913606</v>
       </c>
       <c r="C4">
-        <v>0.1194556508424907</v>
+        <v>-0.1422812006631149</v>
       </c>
       <c r="D4">
-        <v>0.09848911183524349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02853358855918253</v>
+      </c>
+      <c r="E4">
+        <v>0.07754976402536161</v>
+      </c>
+      <c r="F4">
+        <v>-0.1071012568854061</v>
+      </c>
+      <c r="G4">
+        <v>-0.05921767069223092</v>
+      </c>
+      <c r="H4">
+        <v>0.02158958486498245</v>
+      </c>
+      <c r="I4">
+        <v>-0.07761455843736643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02119017299964691</v>
+        <v>0.02992600251943395</v>
       </c>
       <c r="C6">
-        <v>0.04635874925623842</v>
+        <v>-0.05702929041772121</v>
       </c>
       <c r="D6">
-        <v>0.08248106610153394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.03762118816950933</v>
+      </c>
+      <c r="E6">
+        <v>0.08857568967535898</v>
+      </c>
+      <c r="F6">
+        <v>-0.05388486586520774</v>
+      </c>
+      <c r="G6">
+        <v>0.04205536845147907</v>
+      </c>
+      <c r="H6">
+        <v>0.04207061254141588</v>
+      </c>
+      <c r="I6">
+        <v>-0.02102394193524341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.007643574041889663</v>
+        <v>0.006637481036462248</v>
       </c>
       <c r="C7">
-        <v>0.03638347113520368</v>
+        <v>-0.05421924207523813</v>
       </c>
       <c r="D7">
-        <v>0.06365494733561768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03466512283763475</v>
+      </c>
+      <c r="E7">
+        <v>0.07127922493280099</v>
+      </c>
+      <c r="F7">
+        <v>-0.007660256765961566</v>
+      </c>
+      <c r="G7">
+        <v>-0.01864825534658515</v>
+      </c>
+      <c r="H7">
+        <v>0.04421855091914464</v>
+      </c>
+      <c r="I7">
+        <v>-0.08047543186601747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003549972291568133</v>
+        <v>-0.006693486177594603</v>
       </c>
       <c r="C8">
-        <v>0.05032655524071367</v>
+        <v>-0.05895997588236752</v>
       </c>
       <c r="D8">
-        <v>0.08074042310429717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.01522855840612031</v>
+      </c>
+      <c r="E8">
+        <v>0.06634614516448724</v>
+      </c>
+      <c r="F8">
+        <v>-0.0838344055087457</v>
+      </c>
+      <c r="G8">
+        <v>-0.03012628227294332</v>
+      </c>
+      <c r="H8">
+        <v>-0.0505352850953666</v>
+      </c>
+      <c r="I8">
+        <v>-0.02442156612847809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.02505272918300686</v>
+        <v>0.01223142272891418</v>
       </c>
       <c r="C9">
-        <v>0.09774080436307628</v>
+        <v>-0.1139820676331406</v>
       </c>
       <c r="D9">
-        <v>0.08546408247432824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.02772084537480397</v>
+      </c>
+      <c r="E9">
+        <v>0.06544078650877584</v>
+      </c>
+      <c r="F9">
+        <v>-0.06883241400978285</v>
+      </c>
+      <c r="G9">
+        <v>-0.008247551354120355</v>
+      </c>
+      <c r="H9">
+        <v>0.03910530605787065</v>
+      </c>
+      <c r="I9">
+        <v>-0.08217376077993463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2221274315930006</v>
+        <v>0.2424468516884286</v>
       </c>
       <c r="C10">
-        <v>-0.1130576787148329</v>
+        <v>0.08482865502429195</v>
       </c>
       <c r="D10">
-        <v>-0.04336262409547886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01712249641675913</v>
+      </c>
+      <c r="E10">
+        <v>-0.02334462535833291</v>
+      </c>
+      <c r="F10">
+        <v>-0.01304364053570999</v>
+      </c>
+      <c r="G10">
+        <v>-0.006577741064582326</v>
+      </c>
+      <c r="H10">
+        <v>0.02963261038013383</v>
+      </c>
+      <c r="I10">
+        <v>-0.02738607417764333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.009962661531167805</v>
+        <v>0.01222948390772579</v>
       </c>
       <c r="C11">
-        <v>0.04247867866987686</v>
+        <v>-0.06608190784579419</v>
       </c>
       <c r="D11">
-        <v>0.04684582908222901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.01475753693037542</v>
+      </c>
+      <c r="E11">
+        <v>0.05441048029984957</v>
+      </c>
+      <c r="F11">
+        <v>-0.003706896882023073</v>
+      </c>
+      <c r="G11">
+        <v>-0.01422703697206024</v>
+      </c>
+      <c r="H11">
+        <v>0.03206746419879451</v>
+      </c>
+      <c r="I11">
+        <v>-0.03942211387699544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01333640218809836</v>
+        <v>0.01443514413284705</v>
       </c>
       <c r="C12">
-        <v>0.0445059706526119</v>
+        <v>-0.0555366043908823</v>
       </c>
       <c r="D12">
-        <v>0.04885328874274063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02134403030650195</v>
+      </c>
+      <c r="E12">
+        <v>0.04161517865130347</v>
+      </c>
+      <c r="F12">
+        <v>0.005422819246839876</v>
+      </c>
+      <c r="G12">
+        <v>0.01424615751792246</v>
+      </c>
+      <c r="H12">
+        <v>0.02852109612515851</v>
+      </c>
+      <c r="I12">
+        <v>-0.04473006288925103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.01600444292985159</v>
+        <v>0.005471442526020464</v>
       </c>
       <c r="C13">
-        <v>0.05734939550230794</v>
+        <v>-0.09208558245932526</v>
       </c>
       <c r="D13">
-        <v>0.1271169641692491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0784206201016262</v>
+      </c>
+      <c r="E13">
+        <v>0.121210755214293</v>
+      </c>
+      <c r="F13">
+        <v>-0.05447136809362577</v>
+      </c>
+      <c r="G13">
+        <v>0.1024215491856336</v>
+      </c>
+      <c r="H13">
+        <v>0.04207157690896196</v>
+      </c>
+      <c r="I13">
+        <v>-0.09283253227600695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.004459994736166957</v>
+        <v>0.006027381139557544</v>
       </c>
       <c r="C14">
-        <v>0.02220826476308308</v>
+        <v>-0.04936338837665434</v>
       </c>
       <c r="D14">
-        <v>0.05883419911599059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02061181319559843</v>
+      </c>
+      <c r="E14">
+        <v>0.1050415819611051</v>
+      </c>
+      <c r="F14">
+        <v>-0.0194734662175423</v>
+      </c>
+      <c r="G14">
+        <v>0.03528756554906094</v>
+      </c>
+      <c r="H14">
+        <v>0.06750303259284267</v>
+      </c>
+      <c r="I14">
+        <v>-0.139966520606217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002032739988004303</v>
+        <v>-0.003888856427361063</v>
       </c>
       <c r="C15">
-        <v>0.02700754245575718</v>
+        <v>-0.04874202814812946</v>
       </c>
       <c r="D15">
-        <v>0.07677378387404737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03216169021748923</v>
+      </c>
+      <c r="E15">
+        <v>0.07644187530933901</v>
+      </c>
+      <c r="F15">
+        <v>-0.01735292396170122</v>
+      </c>
+      <c r="G15">
+        <v>-0.008967024613704676</v>
+      </c>
+      <c r="H15">
+        <v>0.007810894640275655</v>
+      </c>
+      <c r="I15">
+        <v>-0.05692604135319925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.008846810492135778</v>
+        <v>0.01093643178389297</v>
       </c>
       <c r="C16">
-        <v>0.03898327147570241</v>
+        <v>-0.05632483134210425</v>
       </c>
       <c r="D16">
-        <v>0.03957946147050689</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.01842300317025741</v>
+      </c>
+      <c r="E16">
+        <v>0.0402942658058133</v>
+      </c>
+      <c r="F16">
+        <v>0.000613743923661409</v>
+      </c>
+      <c r="G16">
+        <v>0.001141469271884817</v>
+      </c>
+      <c r="H16">
+        <v>0.03705568094969564</v>
+      </c>
+      <c r="I16">
+        <v>-0.0384846582604832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.01044061693244593</v>
+        <v>0.004236908429129558</v>
       </c>
       <c r="C19">
-        <v>0.01544705354475039</v>
+        <v>-0.0122006105639251</v>
       </c>
       <c r="D19">
-        <v>0.02532074155629519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0003947873391307461</v>
+      </c>
+      <c r="E19">
+        <v>0.01095452981085523</v>
+      </c>
+      <c r="F19">
+        <v>0.007961868993168019</v>
+      </c>
+      <c r="G19">
+        <v>0.005404302936032389</v>
+      </c>
+      <c r="H19">
+        <v>-0.02229317966560911</v>
+      </c>
+      <c r="I19">
+        <v>-0.02632978072632598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002222061138934468</v>
+        <v>0.00265004861755075</v>
       </c>
       <c r="C20">
-        <v>0.0411599222309586</v>
+        <v>-0.06399950099684931</v>
       </c>
       <c r="D20">
-        <v>0.06430295282640205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03544016584099321</v>
+      </c>
+      <c r="E20">
+        <v>0.06717257405833738</v>
+      </c>
+      <c r="F20">
+        <v>-0.009016171542368825</v>
+      </c>
+      <c r="G20">
+        <v>-0.01699810953524485</v>
+      </c>
+      <c r="H20">
+        <v>0.0653413082907047</v>
+      </c>
+      <c r="I20">
+        <v>-0.06448572127351493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.0176825414180103</v>
+        <v>0.01007114891591663</v>
       </c>
       <c r="C21">
-        <v>0.06137616617581458</v>
+        <v>-0.07100212542405542</v>
       </c>
       <c r="D21">
-        <v>0.08819712264599018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02634306300899925</v>
+      </c>
+      <c r="E21">
+        <v>0.08263888428257858</v>
+      </c>
+      <c r="F21">
+        <v>-0.0694594481075225</v>
+      </c>
+      <c r="G21">
+        <v>0.09953823672385648</v>
+      </c>
+      <c r="H21">
+        <v>0.01156145793940686</v>
+      </c>
+      <c r="I21">
+        <v>-0.1849856102271803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001463467589541411</v>
+        <v>-0.01089752532569847</v>
       </c>
       <c r="C22">
-        <v>0.06389573433820009</v>
+        <v>-0.1020887374384324</v>
       </c>
       <c r="D22">
-        <v>0.20550439470731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1439795081407392</v>
+      </c>
+      <c r="E22">
+        <v>0.1854527001587813</v>
+      </c>
+      <c r="F22">
+        <v>-0.2904629675588539</v>
+      </c>
+      <c r="G22">
+        <v>-0.1296345582362162</v>
+      </c>
+      <c r="H22">
+        <v>-0.2286163655125182</v>
+      </c>
+      <c r="I22">
+        <v>0.4253105264154849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001508353566383485</v>
+        <v>-0.007578015879850781</v>
       </c>
       <c r="C23">
-        <v>0.06519524542349796</v>
+        <v>-0.1050715412386546</v>
       </c>
       <c r="D23">
-        <v>0.2051481662206691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1465910019526975</v>
+      </c>
+      <c r="E23">
+        <v>0.1828244745159977</v>
+      </c>
+      <c r="F23">
+        <v>-0.2855051786809116</v>
+      </c>
+      <c r="G23">
+        <v>-0.1231224286354541</v>
+      </c>
+      <c r="H23">
+        <v>-0.2183621588323969</v>
+      </c>
+      <c r="I23">
+        <v>0.3979881974385649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.01202781616781203</v>
+        <v>0.01326159403971364</v>
       </c>
       <c r="C24">
-        <v>0.06368027588487007</v>
+        <v>-0.07423041024333915</v>
       </c>
       <c r="D24">
-        <v>0.05379734407905159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01050132761025828</v>
+      </c>
+      <c r="E24">
+        <v>0.05443697448910455</v>
+      </c>
+      <c r="F24">
+        <v>0.0003844807682678418</v>
+      </c>
+      <c r="G24">
+        <v>-0.005564442983259749</v>
+      </c>
+      <c r="H24">
+        <v>0.02725181393331021</v>
+      </c>
+      <c r="I24">
+        <v>-0.05784601505531187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.01627082409442877</v>
+        <v>0.0180678824099722</v>
       </c>
       <c r="C25">
-        <v>0.05432890716384776</v>
+        <v>-0.06736291420828429</v>
       </c>
       <c r="D25">
-        <v>0.04348816137020054</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01373622931814761</v>
+      </c>
+      <c r="E25">
+        <v>0.04079768789151318</v>
+      </c>
+      <c r="F25">
+        <v>-0.00327872964304926</v>
+      </c>
+      <c r="G25">
+        <v>-0.01005056983361706</v>
+      </c>
+      <c r="H25">
+        <v>0.03346940642788795</v>
+      </c>
+      <c r="I25">
+        <v>-0.03587916953010768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.00624928419501691</v>
+        <v>0.01721408321090557</v>
       </c>
       <c r="C26">
-        <v>0.03129574516643264</v>
+        <v>-0.05023279362424451</v>
       </c>
       <c r="D26">
-        <v>0.05287149723387077</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.006294387184970896</v>
+      </c>
+      <c r="E26">
+        <v>0.08282551700185703</v>
+      </c>
+      <c r="F26">
+        <v>-0.0328495581231802</v>
+      </c>
+      <c r="G26">
+        <v>0.006161454084426817</v>
+      </c>
+      <c r="H26">
+        <v>0.03211330841244083</v>
+      </c>
+      <c r="I26">
+        <v>-0.1245747059216896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.3009289561636626</v>
+        <v>0.3109208767461443</v>
       </c>
       <c r="C28">
-        <v>-0.1384285656544371</v>
+        <v>0.1053141614354489</v>
       </c>
       <c r="D28">
-        <v>-0.04754341791782761</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01176348997081548</v>
+      </c>
+      <c r="E28">
+        <v>-0.04318605476796081</v>
+      </c>
+      <c r="F28">
+        <v>-0.06672511917858896</v>
+      </c>
+      <c r="G28">
+        <v>-0.0354022036386434</v>
+      </c>
+      <c r="H28">
+        <v>-0.02909430405763676</v>
+      </c>
+      <c r="I28">
+        <v>-0.05900949606590573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.005114806581649095</v>
+        <v>0.004913871531732173</v>
       </c>
       <c r="C29">
-        <v>0.02973161768672768</v>
+        <v>-0.05853634740648026</v>
       </c>
       <c r="D29">
-        <v>0.06961126772752481</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0308160924039789</v>
+      </c>
+      <c r="E29">
+        <v>0.1129921241955651</v>
+      </c>
+      <c r="F29">
+        <v>-0.02428129279276907</v>
+      </c>
+      <c r="G29">
+        <v>0.05200345908228115</v>
+      </c>
+      <c r="H29">
+        <v>0.09608235416003169</v>
+      </c>
+      <c r="I29">
+        <v>-0.1766565799279947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.0264434139862549</v>
+        <v>0.02082929251773307</v>
       </c>
       <c r="C30">
-        <v>0.09644137901284527</v>
+        <v>-0.1203716148432959</v>
       </c>
       <c r="D30">
-        <v>0.1382840073659892</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.04580724240821629</v>
+      </c>
+      <c r="E30">
+        <v>0.1192325782754347</v>
+      </c>
+      <c r="F30">
+        <v>-0.05508561106316228</v>
+      </c>
+      <c r="G30">
+        <v>-0.02048882161305085</v>
+      </c>
+      <c r="H30">
+        <v>0.002501176516823695</v>
+      </c>
+      <c r="I30">
+        <v>-0.0254807908922394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.01455227180915029</v>
+        <v>0.01063809427935641</v>
       </c>
       <c r="C31">
-        <v>0.08937449662319251</v>
+        <v>-0.09826552789977172</v>
       </c>
       <c r="D31">
-        <v>0.03160738753262959</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004015899520625251</v>
+      </c>
+      <c r="E31">
+        <v>0.02834181489164561</v>
+      </c>
+      <c r="F31">
+        <v>-0.003206873751543325</v>
+      </c>
+      <c r="G31">
+        <v>0.001495433257213013</v>
+      </c>
+      <c r="H31">
+        <v>-0.0206399964003476</v>
+      </c>
+      <c r="I31">
+        <v>-0.05760505932406768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02365845994881602</v>
+        <v>0.0191425661577153</v>
       </c>
       <c r="C32">
-        <v>0.05211270673893969</v>
+        <v>-0.06107170064550781</v>
       </c>
       <c r="D32">
-        <v>0.09942129622193871</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03086741937486493</v>
+      </c>
+      <c r="E32">
+        <v>0.06584560962542904</v>
+      </c>
+      <c r="F32">
+        <v>-0.1136848883386725</v>
+      </c>
+      <c r="G32">
+        <v>0.03808708728813597</v>
+      </c>
+      <c r="H32">
+        <v>0.02034889501589141</v>
+      </c>
+      <c r="I32">
+        <v>-0.08676300938627043</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.006611275061322064</v>
+        <v>0.00955646761002291</v>
       </c>
       <c r="C33">
-        <v>0.06169351228277092</v>
+        <v>-0.08954023356297003</v>
       </c>
       <c r="D33">
-        <v>0.08379569703125937</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.03933613606084999</v>
+      </c>
+      <c r="E33">
+        <v>0.08615925543019248</v>
+      </c>
+      <c r="F33">
+        <v>-0.01530091889738049</v>
+      </c>
+      <c r="G33">
+        <v>0.0006893220401312627</v>
+      </c>
+      <c r="H33">
+        <v>0.03057184909267957</v>
+      </c>
+      <c r="I33">
+        <v>-0.06109491782217809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.01082554275093843</v>
+        <v>0.01334177585628772</v>
       </c>
       <c r="C34">
-        <v>0.05385994524871582</v>
+        <v>-0.05778458172738958</v>
       </c>
       <c r="D34">
-        <v>0.05874342289551387</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.01123115143887457</v>
+      </c>
+      <c r="E34">
+        <v>0.04420295609429825</v>
+      </c>
+      <c r="F34">
+        <v>0.02303932647501003</v>
+      </c>
+      <c r="G34">
+        <v>0.006967758414262959</v>
+      </c>
+      <c r="H34">
+        <v>0.009339623904482829</v>
+      </c>
+      <c r="I34">
+        <v>-0.0244015003904756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.00186167320187191</v>
+        <v>0.005270468644079223</v>
       </c>
       <c r="C35">
-        <v>0.002150852199192494</v>
+        <v>-0.02438951312970502</v>
       </c>
       <c r="D35">
-        <v>0.008829161657102786</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01263782446498332</v>
+      </c>
+      <c r="E35">
+        <v>0.0406677489838415</v>
+      </c>
+      <c r="F35">
+        <v>-0.01830720909972997</v>
+      </c>
+      <c r="G35">
+        <v>0.01116987261735154</v>
+      </c>
+      <c r="H35">
+        <v>0.05673616825827714</v>
+      </c>
+      <c r="I35">
+        <v>-0.1003747259482898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.005683393311067397</v>
+        <v>0.009893342529220974</v>
       </c>
       <c r="C36">
-        <v>0.02970667741125052</v>
+        <v>-0.04152347626689744</v>
       </c>
       <c r="D36">
-        <v>0.04274976689678995</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.003952280904751681</v>
+      </c>
+      <c r="E36">
+        <v>0.06557761040039821</v>
+      </c>
+      <c r="F36">
+        <v>-0.03439883779609615</v>
+      </c>
+      <c r="G36">
+        <v>0.003296060706620003</v>
+      </c>
+      <c r="H36">
+        <v>0.03038957120969905</v>
+      </c>
+      <c r="I36">
+        <v>-0.07193327548426294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.004670761512353688</v>
+        <v>0.006969440910593582</v>
       </c>
       <c r="C38">
-        <v>0.01603455040542399</v>
+        <v>-0.04220849572422549</v>
       </c>
       <c r="D38">
-        <v>0.06551749678725406</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.03073852510928793</v>
+      </c>
+      <c r="E38">
+        <v>0.07870728088786208</v>
+      </c>
+      <c r="F38">
+        <v>-0.01301680036460795</v>
+      </c>
+      <c r="G38">
+        <v>-0.04999625835360316</v>
+      </c>
+      <c r="H38">
+        <v>-0.001051897807914253</v>
+      </c>
+      <c r="I38">
+        <v>-0.08047930797527743</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01471920304610876</v>
+        <v>0.01205435430825035</v>
       </c>
       <c r="C39">
-        <v>0.0774639756254176</v>
+        <v>-0.1056497597462787</v>
       </c>
       <c r="D39">
-        <v>0.1089424442477704</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.02461615398221625</v>
+      </c>
+      <c r="E39">
+        <v>0.09727778170096137</v>
+      </c>
+      <c r="F39">
+        <v>0.006773102586357574</v>
+      </c>
+      <c r="G39">
+        <v>0.00832754425552368</v>
+      </c>
+      <c r="H39">
+        <v>0.03537244017541354</v>
+      </c>
+      <c r="I39">
+        <v>-0.05632508299488793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.005727780725339349</v>
+        <v>0.01033632008588622</v>
       </c>
       <c r="C40">
-        <v>0.01995646980693777</v>
+        <v>-0.04845686049765759</v>
       </c>
       <c r="D40">
-        <v>0.09225248040021183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.05397256822283988</v>
+      </c>
+      <c r="E40">
+        <v>0.1221878277422849</v>
+      </c>
+      <c r="F40">
+        <v>0.006235485780353431</v>
+      </c>
+      <c r="G40">
+        <v>0.02449653351551588</v>
+      </c>
+      <c r="H40">
+        <v>0.04044511666399578</v>
+      </c>
+      <c r="I40">
+        <v>-0.009178112279544716</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.008956289627565277</v>
+        <v>0.01777455690021065</v>
       </c>
       <c r="C41">
-        <v>0.02424159090517763</v>
+        <v>-0.04370809040937301</v>
       </c>
       <c r="D41">
-        <v>0.01868829442689739</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01185975629796919</v>
+      </c>
+      <c r="E41">
+        <v>0.02080518578274468</v>
+      </c>
+      <c r="F41">
+        <v>0.01432239856358072</v>
+      </c>
+      <c r="G41">
+        <v>-0.006797788655279352</v>
+      </c>
+      <c r="H41">
+        <v>0.00422022134667639</v>
+      </c>
+      <c r="I41">
+        <v>-0.04155988837645888</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.003872348638934186</v>
+        <v>0.008377681786064937</v>
       </c>
       <c r="C43">
-        <v>0.01843821015240052</v>
+        <v>-0.0353976994878996</v>
       </c>
       <c r="D43">
-        <v>0.03714191647180225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01175907786833087</v>
+      </c>
+      <c r="E43">
+        <v>0.04448669146097374</v>
+      </c>
+      <c r="F43">
+        <v>0.003230464890917097</v>
+      </c>
+      <c r="G43">
+        <v>-0.0149120217846742</v>
+      </c>
+      <c r="H43">
+        <v>0.01926311288676886</v>
+      </c>
+      <c r="I43">
+        <v>-0.05458366647550502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01939306080803211</v>
+        <v>0.008204124123560891</v>
       </c>
       <c r="C44">
-        <v>0.05077828323434923</v>
+        <v>-0.07310040860987085</v>
       </c>
       <c r="D44">
-        <v>0.08359895478997233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.02485761315581451</v>
+      </c>
+      <c r="E44">
+        <v>0.1026399336752705</v>
+      </c>
+      <c r="F44">
+        <v>-0.04716224618284592</v>
+      </c>
+      <c r="G44">
+        <v>-0.01206648529745128</v>
+      </c>
+      <c r="H44">
+        <v>-0.001425052131852987</v>
+      </c>
+      <c r="I44">
+        <v>-0.03346923621964028</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.001552259499824509</v>
+        <v>-0.0005900282518712721</v>
       </c>
       <c r="C46">
-        <v>0.03816058276114593</v>
+        <v>-0.05359136035658967</v>
       </c>
       <c r="D46">
-        <v>0.06826144963036782</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01392975088138265</v>
+      </c>
+      <c r="E46">
+        <v>0.08547913577717384</v>
+      </c>
+      <c r="F46">
+        <v>-0.0151174431481389</v>
+      </c>
+      <c r="G46">
+        <v>0.006925446378229715</v>
+      </c>
+      <c r="H46">
+        <v>0.05983357150734991</v>
+      </c>
+      <c r="I46">
+        <v>-0.1126545847446449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.0437940948003613</v>
+        <v>0.02880882696034363</v>
       </c>
       <c r="C47">
-        <v>0.1167777999827097</v>
+        <v>-0.1148414675088533</v>
       </c>
       <c r="D47">
-        <v>0.03726090117162464</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01040653248027331</v>
+      </c>
+      <c r="E47">
+        <v>0.01449671995804027</v>
+      </c>
+      <c r="F47">
+        <v>0.003586868776194617</v>
+      </c>
+      <c r="G47">
+        <v>-0.01039202969676294</v>
+      </c>
+      <c r="H47">
+        <v>-0.00026897441560841</v>
+      </c>
+      <c r="I47">
+        <v>-0.08833730885910188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.008493426951297418</v>
+        <v>0.01431308508072111</v>
       </c>
       <c r="C48">
-        <v>0.03227293038400375</v>
+        <v>-0.04735597332803537</v>
       </c>
       <c r="D48">
-        <v>0.04269768586995635</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.004062327354419346</v>
+      </c>
+      <c r="E48">
+        <v>0.07487830453311861</v>
+      </c>
+      <c r="F48">
+        <v>-0.04520297278962656</v>
+      </c>
+      <c r="G48">
+        <v>-0.001858451281878024</v>
+      </c>
+      <c r="H48">
+        <v>0.04104141019752853</v>
+      </c>
+      <c r="I48">
+        <v>-0.1182011235095035</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002869498526351744</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006670288385741032</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006824536754846097</v>
+      </c>
+      <c r="E49">
+        <v>0.006315218098699574</v>
+      </c>
+      <c r="F49">
+        <v>0.01299977028731112</v>
+      </c>
+      <c r="G49">
+        <v>0.008500204158988403</v>
+      </c>
+      <c r="H49">
+        <v>0.01275910336720767</v>
+      </c>
+      <c r="I49">
+        <v>0.009796728973510716</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.01335339024274983</v>
+        <v>0.01183223694973981</v>
       </c>
       <c r="C50">
-        <v>0.05498933553336458</v>
+        <v>-0.0722531119182825</v>
       </c>
       <c r="D50">
-        <v>0.0434323564423919</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0154621864295061</v>
+      </c>
+      <c r="E50">
+        <v>0.03439360139134877</v>
+      </c>
+      <c r="F50">
+        <v>-0.01370679226419346</v>
+      </c>
+      <c r="G50">
+        <v>-0.009717064052442586</v>
+      </c>
+      <c r="H50">
+        <v>-0.004688605593692797</v>
+      </c>
+      <c r="I50">
+        <v>-0.05838634812019315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.004742743545604475</v>
+        <v>-0.004882897855592033</v>
       </c>
       <c r="C51">
-        <v>0.0188020921349621</v>
+        <v>-0.02970285053051648</v>
       </c>
       <c r="D51">
-        <v>0.06504869816497666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01404666406216427</v>
+      </c>
+      <c r="E51">
+        <v>0.05779895297583033</v>
+      </c>
+      <c r="F51">
+        <v>-0.0486269626198015</v>
+      </c>
+      <c r="G51">
+        <v>0.01418448163326264</v>
+      </c>
+      <c r="H51">
+        <v>0.008605807763836839</v>
+      </c>
+      <c r="I51">
+        <v>-0.1041483321843422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.08622632349159982</v>
+        <v>0.06342520581683971</v>
       </c>
       <c r="C53">
-        <v>0.1562224107410889</v>
+        <v>-0.162801198821486</v>
       </c>
       <c r="D53">
-        <v>0.0005024001041243633</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04161691872319316</v>
+      </c>
+      <c r="E53">
+        <v>-0.04642023855338983</v>
+      </c>
+      <c r="F53">
+        <v>0.02669054370342394</v>
+      </c>
+      <c r="G53">
+        <v>-0.01309279038933918</v>
+      </c>
+      <c r="H53">
+        <v>-0.04133103725130333</v>
+      </c>
+      <c r="I53">
+        <v>-0.02046569501890224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.007511638623744856</v>
+        <v>0.0131254024347115</v>
       </c>
       <c r="C54">
-        <v>0.03005922509986417</v>
+        <v>-0.05185420031640869</v>
       </c>
       <c r="D54">
-        <v>0.07753373363311168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.04211376773085182</v>
+      </c>
+      <c r="E54">
+        <v>0.05895546529822444</v>
+      </c>
+      <c r="F54">
+        <v>-0.01124665035596668</v>
+      </c>
+      <c r="G54">
+        <v>-0.006308492065768483</v>
+      </c>
+      <c r="H54">
+        <v>0.01202306558338915</v>
+      </c>
+      <c r="I54">
+        <v>-0.0897873474195936</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.06010208371891736</v>
+        <v>0.0394687655328897</v>
       </c>
       <c r="C55">
-        <v>0.1125931484179479</v>
+        <v>-0.1146216784772334</v>
       </c>
       <c r="D55">
-        <v>-0.0034616597967323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0496638613794152</v>
+      </c>
+      <c r="E55">
+        <v>-0.02343572625898415</v>
+      </c>
+      <c r="F55">
+        <v>0.03223163472942741</v>
+      </c>
+      <c r="G55">
+        <v>-0.001362726913490189</v>
+      </c>
+      <c r="H55">
+        <v>-0.04226340047761958</v>
+      </c>
+      <c r="I55">
+        <v>-0.02806585456570771</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.09417011275993077</v>
+        <v>0.06091752859296301</v>
       </c>
       <c r="C56">
-        <v>0.1691653596674596</v>
+        <v>-0.1828637527750264</v>
       </c>
       <c r="D56">
-        <v>0.02399101705450179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05158362504606682</v>
+      </c>
+      <c r="E56">
+        <v>-0.03712643761750292</v>
+      </c>
+      <c r="F56">
+        <v>0.06361974366726812</v>
+      </c>
+      <c r="G56">
+        <v>-0.0123770231311692</v>
+      </c>
+      <c r="H56">
+        <v>-0.1231066660715793</v>
+      </c>
+      <c r="I56">
+        <v>-0.02109600378503769</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01997151959723966</v>
+        <v>0.01064925836739335</v>
       </c>
       <c r="C58">
-        <v>0.07090056407872318</v>
+        <v>-0.1160973325262575</v>
       </c>
       <c r="D58">
-        <v>0.2175538482041869</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.1276545065578369</v>
+      </c>
+      <c r="E58">
+        <v>0.1659743530808202</v>
+      </c>
+      <c r="F58">
+        <v>-0.2715021270807711</v>
+      </c>
+      <c r="G58">
+        <v>-0.06388891932541961</v>
+      </c>
+      <c r="H58">
+        <v>-0.1260061266200629</v>
+      </c>
+      <c r="I58">
+        <v>0.04990408813267225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.2386476601307941</v>
+        <v>0.2682694654910423</v>
       </c>
       <c r="C59">
-        <v>-0.08422291686888891</v>
+        <v>0.05500171940792384</v>
       </c>
       <c r="D59">
-        <v>0.04816118838274612</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02067278494170752</v>
+      </c>
+      <c r="E59">
+        <v>0.02866320877105872</v>
+      </c>
+      <c r="F59">
+        <v>-0.03257267808616272</v>
+      </c>
+      <c r="G59">
+        <v>0.01972552029893555</v>
+      </c>
+      <c r="H59">
+        <v>0.001909602839699322</v>
+      </c>
+      <c r="I59">
+        <v>0.03624876991694676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.150090614335857</v>
+        <v>0.1531593503281164</v>
       </c>
       <c r="C60">
-        <v>0.1233953194977381</v>
+        <v>-0.1553225701607521</v>
       </c>
       <c r="D60">
-        <v>0.08670788191851519</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02316186076735594</v>
+      </c>
+      <c r="E60">
+        <v>0.08364658563170764</v>
+      </c>
+      <c r="F60">
+        <v>0.2287586645839902</v>
+      </c>
+      <c r="G60">
+        <v>0.1048887064814162</v>
+      </c>
+      <c r="H60">
+        <v>0.1684952374296384</v>
+      </c>
+      <c r="I60">
+        <v>0.2856883873753862</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02022426000079079</v>
+        <v>0.01822814436336097</v>
       </c>
       <c r="C61">
-        <v>0.06488576374755589</v>
+        <v>-0.09102172541223205</v>
       </c>
       <c r="D61">
-        <v>0.07401824027929749</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.01541775098944211</v>
+      </c>
+      <c r="E61">
+        <v>0.07644434359830996</v>
+      </c>
+      <c r="F61">
+        <v>0.02032587085757107</v>
+      </c>
+      <c r="G61">
+        <v>-0.004273079602439658</v>
+      </c>
+      <c r="H61">
+        <v>0.02739471062797429</v>
+      </c>
+      <c r="I61">
+        <v>-0.06570543071138583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0004054284004233699</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.001055996278176769</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0004894430008889987</v>
+      </c>
+      <c r="E62">
+        <v>-0.0006871155083628481</v>
+      </c>
+      <c r="F62">
+        <v>-0.003035766208127946</v>
+      </c>
+      <c r="G62">
+        <v>5.87667175734863e-06</v>
+      </c>
+      <c r="H62">
+        <v>-0.0007378886091159235</v>
+      </c>
+      <c r="I62">
+        <v>-0.003210295353318113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.002104313737720903</v>
+        <v>0.01766893553952</v>
       </c>
       <c r="C63">
-        <v>0.04719463222866958</v>
+        <v>-0.06374196694411947</v>
       </c>
       <c r="D63">
-        <v>0.06223913848956861</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.005289712653517056</v>
+      </c>
+      <c r="E63">
+        <v>0.07614472703967776</v>
+      </c>
+      <c r="F63">
+        <v>-0.003758828973377396</v>
+      </c>
+      <c r="G63">
+        <v>0.003875844097007824</v>
+      </c>
+      <c r="H63">
+        <v>0.03024423177224012</v>
+      </c>
+      <c r="I63">
+        <v>-0.07716535859990212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.03033351181657999</v>
+        <v>0.01752088429653249</v>
       </c>
       <c r="C64">
-        <v>0.1087097130712773</v>
+        <v>-0.1067853731865925</v>
       </c>
       <c r="D64">
-        <v>0.02194083275383514</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.009749190394569403</v>
+      </c>
+      <c r="E64">
+        <v>0.02699097720915332</v>
+      </c>
+      <c r="F64">
+        <v>-0.01807985900220888</v>
+      </c>
+      <c r="G64">
+        <v>-0.0160899721247083</v>
+      </c>
+      <c r="H64">
+        <v>0.06239635343074043</v>
+      </c>
+      <c r="I64">
+        <v>0.01488411289069779</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01836945786911551</v>
+        <v>0.02348857723057615</v>
       </c>
       <c r="C65">
-        <v>0.03974077441296982</v>
+        <v>-0.06569534775452436</v>
       </c>
       <c r="D65">
-        <v>0.08736375585893184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05374337317017951</v>
+      </c>
+      <c r="E65">
+        <v>0.09795464227843786</v>
+      </c>
+      <c r="F65">
+        <v>0.001123380445938499</v>
+      </c>
+      <c r="G65">
+        <v>-0.001653190548977863</v>
+      </c>
+      <c r="H65">
+        <v>0.08515029987150531</v>
+      </c>
+      <c r="I65">
+        <v>0.02378813548097333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02062846188373287</v>
+        <v>0.01376172238918636</v>
       </c>
       <c r="C66">
-        <v>0.09548552422564463</v>
+        <v>-0.1305615216742743</v>
       </c>
       <c r="D66">
-        <v>0.1426608440179511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.05653793788404202</v>
+      </c>
+      <c r="E66">
+        <v>0.1073440510074357</v>
+      </c>
+      <c r="F66">
+        <v>-0.007184071025994627</v>
+      </c>
+      <c r="G66">
+        <v>-0.002280155325075109</v>
+      </c>
+      <c r="H66">
+        <v>0.008440254366079852</v>
+      </c>
+      <c r="I66">
+        <v>-0.05392672642368904</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01759763389468262</v>
+        <v>0.0180688538255452</v>
       </c>
       <c r="C67">
-        <v>0.01800008595055576</v>
+        <v>-0.04108299058590491</v>
       </c>
       <c r="D67">
-        <v>0.03280222920743765</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007422594733882164</v>
+      </c>
+      <c r="E67">
+        <v>0.06258904569214234</v>
+      </c>
+      <c r="F67">
+        <v>0.02852777156167784</v>
+      </c>
+      <c r="G67">
+        <v>-0.04255904061076282</v>
+      </c>
+      <c r="H67">
+        <v>0.01333677012504765</v>
+      </c>
+      <c r="I67">
+        <v>-0.06322039902004581</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.234003866447783</v>
+        <v>0.2779147497492909</v>
       </c>
       <c r="C68">
-        <v>-0.09844129724850979</v>
+        <v>0.06826510252217398</v>
       </c>
       <c r="D68">
-        <v>0.01618855901063273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0385508492116322</v>
+      </c>
+      <c r="E68">
+        <v>0.01527364426333169</v>
+      </c>
+      <c r="F68">
+        <v>-0.055644772902297</v>
+      </c>
+      <c r="G68">
+        <v>-0.01264588175644853</v>
+      </c>
+      <c r="H68">
+        <v>-0.0330354152896298</v>
+      </c>
+      <c r="I68">
+        <v>0.03076675248950035</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.03964404010266911</v>
+        <v>0.01684498869070801</v>
       </c>
       <c r="C69">
-        <v>0.1219901801594959</v>
+        <v>-0.1048438071687897</v>
       </c>
       <c r="D69">
-        <v>0.04899143839390323</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.024150160425444</v>
+      </c>
+      <c r="E69">
+        <v>0.02497888968664173</v>
+      </c>
+      <c r="F69">
+        <v>0.02087095015964746</v>
+      </c>
+      <c r="G69">
+        <v>-0.008285201758545248</v>
+      </c>
+      <c r="H69">
+        <v>-0.009945668253696074</v>
+      </c>
+      <c r="I69">
+        <v>-0.04966761345147502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2488175286212743</v>
+        <v>0.2670076647935022</v>
       </c>
       <c r="C71">
-        <v>-0.1177743076115824</v>
+        <v>0.08350000816890117</v>
       </c>
       <c r="D71">
-        <v>0.0180132834468508</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01767866997920869</v>
+      </c>
+      <c r="E71">
+        <v>0.02030365018812278</v>
+      </c>
+      <c r="F71">
+        <v>-0.02838829031730568</v>
+      </c>
+      <c r="G71">
+        <v>-0.02845518851856527</v>
+      </c>
+      <c r="H71">
+        <v>-0.004933264670139244</v>
+      </c>
+      <c r="I71">
+        <v>-0.06378840620527886</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.08207863834300383</v>
+        <v>0.06444794554300023</v>
       </c>
       <c r="C72">
-        <v>0.1181652666982454</v>
+        <v>-0.1363974733589718</v>
       </c>
       <c r="D72">
-        <v>0.09796130281754174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01423646170125337</v>
+      </c>
+      <c r="E72">
+        <v>0.05633760389625356</v>
+      </c>
+      <c r="F72">
+        <v>0.03940371028555037</v>
+      </c>
+      <c r="G72">
+        <v>0.009172269944404883</v>
+      </c>
+      <c r="H72">
+        <v>0.01712894416444325</v>
+      </c>
+      <c r="I72">
+        <v>0.02704327877259903</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1178259579238512</v>
+        <v>0.1448875063779612</v>
       </c>
       <c r="C73">
-        <v>0.09403629021165648</v>
+        <v>-0.1580125080475464</v>
       </c>
       <c r="D73">
-        <v>0.1158262113092136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.03987172228527017</v>
+      </c>
+      <c r="E73">
+        <v>0.1654017891757671</v>
+      </c>
+      <c r="F73">
+        <v>0.3218670594475028</v>
+      </c>
+      <c r="G73">
+        <v>0.1180519844821051</v>
+      </c>
+      <c r="H73">
+        <v>0.3074120144534067</v>
+      </c>
+      <c r="I73">
+        <v>0.2735094532485297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.07351542888663647</v>
+        <v>0.0503838507917705</v>
       </c>
       <c r="C74">
-        <v>0.1370151237061047</v>
+        <v>-0.1359552289711028</v>
       </c>
       <c r="D74">
-        <v>-0.04669505631705008</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.06419342423903258</v>
+      </c>
+      <c r="E74">
+        <v>-0.04457370872851703</v>
+      </c>
+      <c r="F74">
+        <v>0.01928823371848118</v>
+      </c>
+      <c r="G74">
+        <v>-0.01458958442435664</v>
+      </c>
+      <c r="H74">
+        <v>-0.03195158824016466</v>
+      </c>
+      <c r="I74">
+        <v>-0.01999531534252809</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1727724585507553</v>
+        <v>0.09820369354150774</v>
       </c>
       <c r="C75">
-        <v>0.2277918056054693</v>
+        <v>-0.2349346306438271</v>
       </c>
       <c r="D75">
-        <v>-0.01964047726214175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1007219233063586</v>
+      </c>
+      <c r="E75">
+        <v>-0.1085270020345189</v>
+      </c>
+      <c r="F75">
+        <v>0.1554933840680857</v>
+      </c>
+      <c r="G75">
+        <v>-0.1166728808468045</v>
+      </c>
+      <c r="H75">
+        <v>-0.2271131447614301</v>
+      </c>
+      <c r="I75">
+        <v>-0.03764857299846238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.09348138626186243</v>
+        <v>0.05735891004263453</v>
       </c>
       <c r="C76">
-        <v>0.1640914966645898</v>
+        <v>-0.1726493954152752</v>
       </c>
       <c r="D76">
-        <v>0.01156246954668541</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0638038436603678</v>
+      </c>
+      <c r="E76">
+        <v>-0.02885681095543144</v>
+      </c>
+      <c r="F76">
+        <v>0.0944009576558112</v>
+      </c>
+      <c r="G76">
+        <v>-0.008017561180850756</v>
+      </c>
+      <c r="H76">
+        <v>-0.08455770693629591</v>
+      </c>
+      <c r="I76">
+        <v>-0.04960179969892909</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.03743205664653752</v>
+        <v>0.02706661161871268</v>
       </c>
       <c r="C77">
-        <v>0.08856408494588341</v>
+        <v>-0.1548538967194098</v>
       </c>
       <c r="D77">
-        <v>0.3027616211451528</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.8395472959582289</v>
+      </c>
+      <c r="E77">
+        <v>-0.491467910237327</v>
+      </c>
+      <c r="F77">
+        <v>0.07250958337560538</v>
+      </c>
+      <c r="G77">
+        <v>-0.02542089878744792</v>
+      </c>
+      <c r="H77">
+        <v>0.05548945962248918</v>
+      </c>
+      <c r="I77">
+        <v>-0.0647293112165598</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.0321524084431958</v>
+        <v>0.02771291117686669</v>
       </c>
       <c r="C78">
-        <v>0.08910404661489001</v>
+        <v>-0.1035456519171089</v>
       </c>
       <c r="D78">
-        <v>0.1243166018045304</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.002029812850419636</v>
+      </c>
+      <c r="E78">
+        <v>0.09868524850858806</v>
+      </c>
+      <c r="F78">
+        <v>-0.05728005551029856</v>
+      </c>
+      <c r="G78">
+        <v>0.0266047371782598</v>
+      </c>
+      <c r="H78">
+        <v>-0.08459789947241907</v>
+      </c>
+      <c r="I78">
+        <v>-0.1197694644792412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09377057986088556</v>
+        <v>0.05753562141466192</v>
       </c>
       <c r="C79">
-        <v>0.4068140957016397</v>
+        <v>-0.2976805963706832</v>
       </c>
       <c r="D79">
-        <v>-0.6230206722189843</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.2960547005556422</v>
+      </c>
+      <c r="E79">
+        <v>-0.4569611732501076</v>
+      </c>
+      <c r="F79">
+        <v>-0.5444496994027898</v>
+      </c>
+      <c r="G79">
+        <v>0.05334828200718898</v>
+      </c>
+      <c r="H79">
+        <v>0.47459541011886</v>
+      </c>
+      <c r="I79">
+        <v>0.1292891530958005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.0008713438846568776</v>
+        <v>0.009906208535993334</v>
       </c>
       <c r="C80">
-        <v>0.06008196206103856</v>
+        <v>-0.05822427852852682</v>
       </c>
       <c r="D80">
-        <v>0.04400383775866902</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.005304584263213734</v>
+      </c>
+      <c r="E80">
+        <v>0.06947536005002429</v>
+      </c>
+      <c r="F80">
+        <v>0.02634499488430223</v>
+      </c>
+      <c r="G80">
+        <v>0.06412319485163666</v>
+      </c>
+      <c r="H80">
+        <v>0.02260434272804901</v>
+      </c>
+      <c r="I80">
+        <v>0.02966671651390408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.07875281969734951</v>
+        <v>0.03638448833803917</v>
       </c>
       <c r="C81">
-        <v>0.1517112516714131</v>
+        <v>-0.1514903294164386</v>
       </c>
       <c r="D81">
-        <v>-0.05214277745390823</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0704209786836215</v>
+      </c>
+      <c r="E81">
+        <v>-0.05926722011159101</v>
+      </c>
+      <c r="F81">
+        <v>0.0162156398222246</v>
+      </c>
+      <c r="G81">
+        <v>-0.01936941468075294</v>
+      </c>
+      <c r="H81">
+        <v>-0.07210062997916226</v>
+      </c>
+      <c r="I81">
+        <v>-0.06205535975855184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1400816667925099</v>
+        <v>0.07772739085126973</v>
       </c>
       <c r="C82">
-        <v>0.2161712839971189</v>
+        <v>-0.1996565351753382</v>
       </c>
       <c r="D82">
-        <v>-0.02578437171885897</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.09988421183392875</v>
+      </c>
+      <c r="E82">
+        <v>-0.07056030611253107</v>
+      </c>
+      <c r="F82">
+        <v>0.08845969787775448</v>
+      </c>
+      <c r="G82">
+        <v>-0.006321267828047514</v>
+      </c>
+      <c r="H82">
+        <v>-0.1267392062956923</v>
+      </c>
+      <c r="I82">
+        <v>-0.08267751978070591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.003956568622650287</v>
+        <v>0.004090423536826201</v>
       </c>
       <c r="C83">
-        <v>0.05746679304116677</v>
+        <v>-0.0204633100815673</v>
       </c>
       <c r="D83">
-        <v>0.04966531518969114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03921058300325286</v>
+      </c>
+      <c r="E83">
+        <v>-0.03890484909737416</v>
+      </c>
+      <c r="F83">
+        <v>-0.09990858397579608</v>
+      </c>
+      <c r="G83">
+        <v>0.9115098818379024</v>
+      </c>
+      <c r="H83">
+        <v>-0.2655064434365315</v>
+      </c>
+      <c r="I83">
+        <v>0.04528670262165706</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.001952012543250195</v>
+        <v>-0.002873272134282982</v>
       </c>
       <c r="C84">
-        <v>0.01411553177959358</v>
+        <v>-0.02822757780868629</v>
       </c>
       <c r="D84">
-        <v>0.03980854266751239</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0120500467961069</v>
+      </c>
+      <c r="E84">
+        <v>0.0543843418027172</v>
+      </c>
+      <c r="F84">
+        <v>-0.06347462610677439</v>
+      </c>
+      <c r="G84">
+        <v>-0.05488255603265708</v>
+      </c>
+      <c r="H84">
+        <v>-0.03463555189405049</v>
+      </c>
+      <c r="I84">
+        <v>-0.07014358794449933</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.08872331369628818</v>
+        <v>0.05063899698190529</v>
       </c>
       <c r="C85">
-        <v>0.1849422806810471</v>
+        <v>-0.1744473984114217</v>
       </c>
       <c r="D85">
-        <v>-0.0781809339573927</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1190395962366716</v>
+      </c>
+      <c r="E85">
+        <v>-0.09099016648389995</v>
+      </c>
+      <c r="F85">
+        <v>0.03177149741595713</v>
+      </c>
+      <c r="G85">
+        <v>-0.01628015274720256</v>
+      </c>
+      <c r="H85">
+        <v>-0.07783514807612994</v>
+      </c>
+      <c r="I85">
+        <v>-0.02448033578008486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.0258428512566586</v>
+        <v>0.01585978688076447</v>
       </c>
       <c r="C86">
-        <v>0.03382158026352081</v>
+        <v>-0.06131798923178307</v>
       </c>
       <c r="D86">
-        <v>0.09565277649565396</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04801781531967789</v>
+      </c>
+      <c r="E86">
+        <v>0.04267017866737539</v>
+      </c>
+      <c r="F86">
+        <v>-0.07509766743839941</v>
+      </c>
+      <c r="G86">
+        <v>-0.03789332163322347</v>
+      </c>
+      <c r="H86">
+        <v>-0.02656357155057406</v>
+      </c>
+      <c r="I86">
+        <v>-0.06272121575956006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02676660261997086</v>
+        <v>0.01669672868976023</v>
       </c>
       <c r="C87">
-        <v>0.0704675714314207</v>
+        <v>-0.09334502023629676</v>
       </c>
       <c r="D87">
-        <v>0.1404985410155156</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07124315668586341</v>
+      </c>
+      <c r="E87">
+        <v>0.09677452622536123</v>
+      </c>
+      <c r="F87">
+        <v>-0.0766381993340262</v>
+      </c>
+      <c r="G87">
+        <v>-0.01705909491789707</v>
+      </c>
+      <c r="H87">
+        <v>-0.04193720182551026</v>
+      </c>
+      <c r="I87">
+        <v>-0.04775944708087689</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03993903392804449</v>
+        <v>0.03847415951716918</v>
       </c>
       <c r="C88">
-        <v>0.0750868902345712</v>
+        <v>-0.08381858628006186</v>
       </c>
       <c r="D88">
-        <v>-0.0007297351566588157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01005960919689096</v>
+      </c>
+      <c r="E88">
+        <v>0.01635957997582486</v>
+      </c>
+      <c r="F88">
+        <v>0.02700886859243696</v>
+      </c>
+      <c r="G88">
+        <v>-0.00470381942714389</v>
+      </c>
+      <c r="H88">
+        <v>0.01408169275305171</v>
+      </c>
+      <c r="I88">
+        <v>-0.01961998313363149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4086592671027473</v>
+        <v>0.4047678282029363</v>
       </c>
       <c r="C89">
-        <v>-0.2181883875283504</v>
+        <v>0.1522340658545351</v>
       </c>
       <c r="D89">
-        <v>-0.0245473651920804</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02061533785156408</v>
+      </c>
+      <c r="E89">
+        <v>0.009579676467859949</v>
+      </c>
+      <c r="F89">
+        <v>-0.1001216537303869</v>
+      </c>
+      <c r="G89">
+        <v>0.07850812814671609</v>
+      </c>
+      <c r="H89">
+        <v>-0.07526722548449437</v>
+      </c>
+      <c r="I89">
+        <v>-0.07142974924095001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2998867656479615</v>
+        <v>0.3187775246336646</v>
       </c>
       <c r="C90">
-        <v>-0.1543844792384258</v>
+        <v>0.1007851248059284</v>
       </c>
       <c r="D90">
-        <v>0.06396473812528392</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03376975148713218</v>
+      </c>
+      <c r="E90">
+        <v>0.04308997978726339</v>
+      </c>
+      <c r="F90">
+        <v>-0.02015172897841727</v>
+      </c>
+      <c r="G90">
+        <v>-0.01325755751902977</v>
+      </c>
+      <c r="H90">
+        <v>-0.02682178710395459</v>
+      </c>
+      <c r="I90">
+        <v>0.004732671809300056</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1044372230588522</v>
+        <v>0.0677873850400466</v>
       </c>
       <c r="C91">
-        <v>0.210637162127809</v>
+        <v>-0.1826665108588433</v>
       </c>
       <c r="D91">
-        <v>-0.08276343034051516</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0836362300302871</v>
+      </c>
+      <c r="E91">
+        <v>-0.1158532258623594</v>
+      </c>
+      <c r="F91">
+        <v>0.01154830942435726</v>
+      </c>
+      <c r="G91">
+        <v>0.0250656336925958</v>
+      </c>
+      <c r="H91">
+        <v>-0.04912413947861448</v>
+      </c>
+      <c r="I91">
+        <v>-0.01322704090430221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3182763006465958</v>
+        <v>0.3431200967237839</v>
       </c>
       <c r="C92">
-        <v>-0.1714733519684273</v>
+        <v>0.1316107709100709</v>
       </c>
       <c r="D92">
-        <v>-0.02352082433404256</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02959813793115277</v>
+      </c>
+      <c r="E92">
+        <v>-0.01871613123616257</v>
+      </c>
+      <c r="F92">
+        <v>-0.07469955151047494</v>
+      </c>
+      <c r="G92">
+        <v>-0.09321704144744965</v>
+      </c>
+      <c r="H92">
+        <v>0.03501293009071912</v>
+      </c>
+      <c r="I92">
+        <v>-0.01798765947013745</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3138617934268289</v>
+        <v>0.3224935074185453</v>
       </c>
       <c r="C93">
-        <v>-0.1606701846192732</v>
+        <v>0.1222507671447013</v>
       </c>
       <c r="D93">
-        <v>-0.04714797279314688</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02325850616873655</v>
+      </c>
+      <c r="E93">
+        <v>-0.01836088528696658</v>
+      </c>
+      <c r="F93">
+        <v>-0.03745356123239032</v>
+      </c>
+      <c r="G93">
+        <v>-0.01362202975900419</v>
+      </c>
+      <c r="H93">
+        <v>0.00264743803020099</v>
+      </c>
+      <c r="I93">
+        <v>-0.03719274843078758</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1804564024028745</v>
+        <v>0.1164076019193588</v>
       </c>
       <c r="C94">
-        <v>0.2525506276521922</v>
+        <v>-0.2520473155208338</v>
       </c>
       <c r="D94">
-        <v>-0.07825952813985251</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.1572737137420255</v>
+      </c>
+      <c r="E94">
+        <v>-0.2050635556187679</v>
+      </c>
+      <c r="F94">
+        <v>0.1854738653556128</v>
+      </c>
+      <c r="G94">
+        <v>-0.08923872984327748</v>
+      </c>
+      <c r="H94">
+        <v>-0.4252238341118155</v>
+      </c>
+      <c r="I94">
+        <v>0.06197181827639821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.0406169564073023</v>
+        <v>0.03872912501264516</v>
       </c>
       <c r="C95">
-        <v>0.04242984114685706</v>
+        <v>-0.09139534474212563</v>
       </c>
       <c r="D95">
-        <v>0.06045210887109793</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.04557383049098225</v>
+      </c>
+      <c r="E95">
+        <v>0.07514716891186399</v>
+      </c>
+      <c r="F95">
+        <v>0.10332738795096</v>
+      </c>
+      <c r="G95">
+        <v>-0.03487082271257459</v>
+      </c>
+      <c r="H95">
+        <v>0.04431732369762668</v>
+      </c>
+      <c r="I95">
+        <v>-0.09107057592286905</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.003130443144257004</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001563657748909175</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0184435746260419</v>
+      </c>
+      <c r="E97">
+        <v>-0.001199842314842735</v>
+      </c>
+      <c r="F97">
+        <v>0.001902034273239364</v>
+      </c>
+      <c r="G97">
+        <v>-0.01828908890784651</v>
+      </c>
+      <c r="H97">
+        <v>0.002223819520499094</v>
+      </c>
+      <c r="I97">
+        <v>-0.004389813898415446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1069135956770599</v>
+        <v>0.1305615244933995</v>
       </c>
       <c r="C98">
-        <v>0.09480646896599379</v>
+        <v>-0.1424825470417094</v>
       </c>
       <c r="D98">
-        <v>0.1155856278091335</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0152603031317002</v>
+      </c>
+      <c r="E98">
+        <v>0.1405078553100494</v>
+      </c>
+      <c r="F98">
+        <v>0.2480336366762978</v>
+      </c>
+      <c r="G98">
+        <v>0.07870902231740887</v>
+      </c>
+      <c r="H98">
+        <v>0.26401793215498</v>
+      </c>
+      <c r="I98">
+        <v>0.3175815073874148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.006185315726555412</v>
+        <v>0.005038015788727844</v>
       </c>
       <c r="C101">
-        <v>0.02887454335664218</v>
+        <v>-0.05729818005443377</v>
       </c>
       <c r="D101">
-        <v>0.06926589356168295</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03108951425613821</v>
+      </c>
+      <c r="E101">
+        <v>0.111707972633911</v>
+      </c>
+      <c r="F101">
+        <v>-0.02433239624945963</v>
+      </c>
+      <c r="G101">
+        <v>0.05153678412998611</v>
+      </c>
+      <c r="H101">
+        <v>0.09495937097932108</v>
+      </c>
+      <c r="I101">
+        <v>-0.175565696138045</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.06597531318740114</v>
+        <v>0.02509796068142396</v>
       </c>
       <c r="C102">
-        <v>0.1206480527838679</v>
+        <v>-0.08660890862740526</v>
       </c>
       <c r="D102">
-        <v>0.004909198126877835</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04243502248772904</v>
+      </c>
+      <c r="E102">
+        <v>-0.04683029465273562</v>
+      </c>
+      <c r="F102">
+        <v>0.03910234324756822</v>
+      </c>
+      <c r="G102">
+        <v>0.01033353243102062</v>
+      </c>
+      <c r="H102">
+        <v>-0.06909803574432498</v>
+      </c>
+      <c r="I102">
+        <v>-0.01282059448862998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
